--- a/Documentation/Open_Rocker_Switch_BOM_v2.0.xlsx
+++ b/Documentation/Open_Rocker_Switch_BOM_v2.0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/20-XX Rocker Switch/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/20-XX Rocker Switch/Publishing/Git/Open-Rocker-Switch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{017D642F-2CC5-40E5-82E3-47F0530C9941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1907899D-CCD5-466D-9DF2-92FF992B88B2}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{017D642F-2CC5-40E5-82E3-47F0530C9941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D22CAC06-F5E3-466B-9B4A-6FB5D5A29C94}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D4DD46-06D8-4EAA-B9BC-B4D672907BC6}"/>
+    <workbookView minimized="1" xWindow="31095" yWindow="1920" windowWidth="14970" windowHeight="12900" xr2:uid="{B6D4DD46-06D8-4EAA-B9BC-B4D672907BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Part</t>
   </si>
@@ -78,21 +78,12 @@
     <t>https://www.amazon.ca/dp/B001O5F280/ref=twister_B07K2P67VR?_encoding=UTF8&amp;psc=1</t>
   </si>
   <si>
-    <t>Paddle Button</t>
-  </si>
-  <si>
     <t>3D printed Part</t>
   </si>
   <si>
     <t>All 3D printed parts prices are generated with 6 walls and support taken into account</t>
   </si>
   <si>
-    <t>Divider Piece</t>
-  </si>
-  <si>
-    <t>Pin Piece</t>
-  </si>
-  <si>
     <t>Rocker Bottom</t>
   </si>
   <si>
@@ -108,24 +99,6 @@
     <t>Tools</t>
   </si>
   <si>
-    <t>Needle Nose Pliers</t>
-  </si>
-  <si>
-    <t>Mainly tools to take off support material</t>
-  </si>
-  <si>
-    <t>X-acto knife</t>
-  </si>
-  <si>
-    <t>For taking off support material</t>
-  </si>
-  <si>
-    <t>Scraper knife</t>
-  </si>
-  <si>
-    <t>For taking off material from print bed</t>
-  </si>
-  <si>
     <t>Wire Strippers</t>
   </si>
   <si>
@@ -160,13 +133,22 @@
   </si>
   <si>
     <t>Solder</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,24 +554,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B5EA6-04D3-4C00-9920-62DC7CC0CDC9}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -636,7 +618,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -657,15 +639,15 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -686,12 +668,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -711,12 +693,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -736,12 +718,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -762,12 +744,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -788,102 +770,78 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <f>SUM(F2:F8)</f>
         <v>18.27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <f>SUM(H4:H8)/60</f>
         <v>10.983333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -906,12 +864,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1c974e075ae6ad637ed0c9d0de986aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f8b78299b17ebfa6252ff38db7b045f" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1128,14 +1080,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C20929-9706-4FDF-B965-0C0BD832DE1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C20929-9706-4FDF-B965-0C0BD832DE1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4DB720-01A7-4588-988A-716B8A88F23D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A331C459-C260-4B91-B402-A4499C47DB05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A331C459-C260-4B91-B402-A4499C47DB05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4DB720-01A7-4588-988A-716B8A88F23D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>